--- a/kalkulacje.xlsx
+++ b/kalkulacje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miloszbedrylo/Documents/studia/sem5-bd2-proj-mg-ak-mb-dp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E6F3F-472A-6C48-B1FF-438C4971CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E1F5FB-C99A-BD4A-B9A2-DD6E5AB6349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F5FACDEA-D58F-6143-A7B1-2DFD8B0009E1}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,14 +533,14 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>25</v>
       </c>
       <c r="C2" s="1">
         <f>A2*B2</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -558,11 +558,11 @@
       </c>
       <c r="H2" s="1">
         <f>F2*A2</f>
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="I2" s="1">
         <f>H2*B2</f>
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="J2" s="2">
         <v>3</v>
@@ -577,7 +577,7 @@
       </c>
       <c r="M2" s="1">
         <f>L2*C2</f>
-        <v>10800</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="136" x14ac:dyDescent="0.2">

--- a/kalkulacje.xlsx
+++ b/kalkulacje.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miloszbedrylo/Documents/studia/sem5-bd2-proj-mg-ak-mb-dp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E1F5FB-C99A-BD4A-B9A2-DD6E5AB6349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA42C17-A581-1948-9E17-831BA7E6F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F5FACDEA-D58F-6143-A7B1-2DFD8B0009E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,10 +163,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,7 +486,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,123 +497,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>25</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <f>A2*B2</f>
         <v>400</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>90</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>E2*D2</f>
         <v>450</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <f>F2*B2</f>
         <v>11250</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <f>F2*A2</f>
         <v>7200</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <f>H2*B2</f>
         <v>180000</v>
       </c>
-      <c r="J2" s="2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
         <f>_xlfn.CEILING.MATH(E2/5,1,1)</f>
         <v>18</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <f>K2*J2</f>
-        <v>54</v>
-      </c>
-      <c r="M2" s="1">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2">
         <f>L2*C2</f>
-        <v>21600</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
